--- a/medicine/Mort/Lanterne_des_morts_de_Saint-Amand-Magnazeix/Lanterne_des_morts_de_Saint-Amand-Magnazeix.xlsx
+++ b/medicine/Mort/Lanterne_des_morts_de_Saint-Amand-Magnazeix/Lanterne_des_morts_de_Saint-Amand-Magnazeix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lanterne des morts de Saint-Amand-Magnazeix est un monument funéraire, situé sur la commune de Saint-Amand-Magnazeix, dans le département français de la Haute-Vienne.
 </t>
@@ -511,9 +523,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La lanterne est située au centre du cimetière[1], sur le territoire de la commune de Saint-Amand-Magnazeix, dans le département de la Haute-Vienne, en région Nouvelle-Aquitaine, en France.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lanterne est située au centre du cimetière, sur le territoire de la commune de Saint-Amand-Magnazeix, dans le département de la Haute-Vienne, en région Nouvelle-Aquitaine, en France.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La lanterne des morts date du XIIIe siècle[1]. En 1842, une croix de fer remplace une croix en pierre au sommet de l'édifice[2].
-Le monument est classé au titre des monuments historiques par arrêté du 9 avril 1910[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lanterne des morts date du XIIIe siècle. En 1842, une croix de fer remplace une croix en pierre au sommet de l'édifice.
+Le monument est classé au titre des monuments historiques par arrêté du 9 avril 1910.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le monument se présente sous la forme d'un pilier carré creux, permettant à une personne de hisser une lumière à son sommet. Le lanternon, également carré, est ouvert sur ses 4 côtés, en étant pas rigoureusement en regard les unes des autres[1],[2]. L'ensemble est recouvert d'un toit pyramidal, surmonté d'une croix en fer.
-A la base du monument, un autel est présent sur le côté ouest, permettant au célébrant d'officier en direction de l'est[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monument se présente sous la forme d'un pilier carré creux, permettant à une personne de hisser une lumière à son sommet. Le lanternon, également carré, est ouvert sur ses 4 côtés, en étant pas rigoureusement en regard les unes des autres,. L'ensemble est recouvert d'un toit pyramidal, surmonté d'une croix en fer.
+A la base du monument, un autel est présent sur le côté ouest, permettant au célébrant d'officier en direction de l'est.
 </t>
         </is>
       </c>
